--- a/docs/source/recursos/pec_bovino/tabla_cat_fv_bov_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/pec_bovino/tabla_cat_fv_bov_cobertura_usv_svi_16cats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_bovino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_bovino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307CA254-F74A-489F-B2B0-871AAE848CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E80983-D29C-4684-BFF7-8586752A776E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B333B31-9E68-4B9D-A7A3-DAE2744918C8}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Sin vegetación</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Tular</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>FV</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
@@ -474,23 +474,23 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
